--- a/Data/prediction_accuracy_8_experimental.xlsx
+++ b/Data/prediction_accuracy_8_experimental.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef-my.sharepoint.com/personal/snorre_sulheim_sintef_no/Documents/Almaaslab/BigMeC paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snorres\git\BiGMeC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE656AAF-C5BD-4B43-8C75-6591A2174056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC7311B-1219-4144-BEE3-A81CDE1BF23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57490" yWindow="-5380" windowWidth="38620" windowHeight="21220" xr2:uid="{F13DF99C-D2F1-4349-9E08-78A0EB17ADC9}"/>
+    <workbookView xWindow="29310" yWindow="3960" windowWidth="14400" windowHeight="8415" xr2:uid="{F13DF99C-D2F1-4349-9E08-78A0EB17ADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Difficidin</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>S. lohii</t>
   </si>
   <si>
     <t>Leupyrrin</t>
@@ -439,7 +436,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -480,24 +477,24 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>14</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <f>B2-D2</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <f>C2-E2</f>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -505,16 +502,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>26</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F9" si="0">B3-D3</f>
@@ -522,10 +519,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G9" si="1">C3-E3</f>
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -533,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>26</v>
@@ -546,7 +540,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -555,38 +549,38 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -596,47 +590,47 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -646,22 +640,22 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -671,40 +665,40 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:G10" si="2">SUM(C2:C9)</f>
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Data/prediction_accuracy_8_experimental.xlsx
+++ b/Data/prediction_accuracy_8_experimental.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snorres\git\BiGMeC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC7311B-1219-4144-BEE3-A81CDE1BF23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57FB691-2FA3-4720-BC27-1EA32A3ED696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29310" yWindow="3960" windowWidth="14400" windowHeight="8415" xr2:uid="{F13DF99C-D2F1-4349-9E08-78A0EB17ADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F13DF99C-D2F1-4349-9E08-78A0EB17ADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Difficidin</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Total other domains</t>
+  </si>
+  <si>
+    <t>Total accuracy</t>
+  </si>
+  <si>
+    <t>Extende unit</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE46E7D-9963-44C4-80A5-8D6773762C53}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,6 +710,33 @@
         <v>92</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <f>C10/B10</f>
+        <v>0.72807017543859653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <f>E10/D10</f>
+        <v>0.81318681318681318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <f>G10/F10</f>
+        <v>0.67153284671532842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
